--- a/biology/Médecine/Santé_Canada/Santé_Canada.xlsx
+++ b/biology/Médecine/Santé_Canada/Santé_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Canada</t>
+          <t>Santé_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Santé Canada (en anglais : Health Canada) est un ministère du gouvernement du Canada qui est responsable d'aider les Canadiens à maintenir et à améliorer leur état de santé.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Canada</t>
+          <t>Santé_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En travaillant avec d'autres à promouvoir la confiance des Canadiens, Santé Canada vise à[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En travaillant avec d'autres à promouvoir la confiance des Canadiens, Santé Canada vise à :
 prévenir et réduire les risques pour la santé individuelle et pour l'ensemble de l'environnement ;
 promouvoir des modes de vie plus sains ;
 intégrer au renouvellement du système de soins de santé des plans à long terme de prévention, de promotion et de protection de la santé ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Canada</t>
+          <t>Santé_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,48 @@
           <t>Directions générales et agences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santé Canada comprend les directions générales et agences suivantes[3] : 
-Directions générales
-Agence de réglementation de la lutte antiparasitaire
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santé Canada comprend les directions générales et agences suivantes : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Santé_Canada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Canada</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Directions générales et agences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Directions générales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agence de réglementation de la lutte antiparasitaire
 Bureau de la vérification et de la responsabilisation
 Direction générale de la politique stratégique
 Direction générale de la santé des Premières nations et des Inuits
@@ -563,47 +614,117 @@
 Direction générale des produits de santé et des aliments
 Direction générale des régions et des programmes
 Direction générale des services de gestion
-Direction générale du contrôleur ministériel
-Agences
-Agence de la santé publique du Canada
+Direction générale du contrôleur ministériel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_Canada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Canada</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Directions générales et agences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Agences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agence de la santé publique du Canada
 Agence canadienne d'inspection des aliments
 Procréation assistée Canada
 Instituts de recherche en santé du Canada
 Conseil de contrôle des renseignements relatifs aux matières dangereuses
-Conseil d'examen du prix des médicaments brevetés
-Autres
-La Direction des produits de santé commercialisés est également un organisme de Santé Canada.
+Conseil d'examen du prix des médicaments brevetés</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_Canada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Canada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Directions générales et agences</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Direction des produits de santé commercialisés est également un organisme de Santé Canada.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_Canada</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_Canada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Canada</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Approbation des médicaments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la pandémie de Covid-19, Santé Canada a revu son processus d’approbation des médicaments en mettant en place des processus d’évaluation accélérés. À la suite de ce changement de procédure, seuls 8 % des demandes ne recevaient pas de réponse dans les 200 jours prescrits, contrairement à 33 % dans les 300 jours du système précédent[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la pandémie de Covid-19, Santé Canada a revu son processus d’approbation des médicaments en mettant en place des processus d’évaluation accélérés. À la suite de ce changement de procédure, seuls 8 % des demandes ne recevaient pas de réponse dans les 200 jours prescrits, contrairement à 33 % dans les 300 jours du système précédent.
 </t>
         </is>
       </c>
